--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3790.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3790.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.138350455030732</v>
+        <v>1.980461359024048</v>
       </c>
       <c r="B1">
-        <v>2.423682905838501</v>
+        <v>5.39075756072998</v>
       </c>
       <c r="C1">
-        <v>2.570181464943265</v>
+        <v>2.803067684173584</v>
       </c>
       <c r="D1">
-        <v>3.393738139950488</v>
+        <v>2.324413061141968</v>
       </c>
       <c r="E1">
-        <v>2.386629591092821</v>
+        <v>2.107751131057739</v>
       </c>
     </row>
   </sheetData>
